--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\IdeaProjects\qamid-diplom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B5EC84-4AA5-440D-A930-566D671BC036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,203 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Форма логина</t>
+  </si>
+  <si>
+    <t>Вход без ввода логина и пароля</t>
+  </si>
+  <si>
+    <t>Дождаться формы входа
+Нажать на кнопку входа</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Поля ввода логина и пароля видны и доступны
+Кнопка входа видна и кликабельна</t>
+  </si>
+  <si>
+    <t>Запустить приложение
+На экране загрузки виден спинер и цитата
+Через некторое время видна форма логина</t>
+  </si>
+  <si>
+    <t>Сработала валидация, виден текст о необходимости ввести логин и пароль</t>
+  </si>
+  <si>
+    <t>Вход с неверными данными</t>
+  </si>
+  <si>
+    <t>Дождаться формы входа
+Ввести данные несуществующего пользователя
+Нажать на кнопку входа</t>
+  </si>
+  <si>
+    <t>Сработала валидация, виден текст о неправильно введенных логине и пароле</t>
+  </si>
+  <si>
+    <t>Вход под существующим пользователем</t>
+  </si>
+  <si>
+    <t>Дождаться формы входа
+Ввести данные существующего пользователя
+Нажать на кнопку входа</t>
+  </si>
+  <si>
+    <t>Виден главный экран с новостями и претензиями</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на три полоски (меню)
+Выбрать пункт меню Претензии</t>
+  </si>
+  <si>
+    <t>Виден экран с претензиями</t>
+  </si>
+  <si>
+    <t>Открытие экрана претензий из меню</t>
+  </si>
+  <si>
+    <t>Открытие экрана новостей из меню</t>
+  </si>
+  <si>
+    <t>Открытие экрана о приложение из меню</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на три полоски (меню)
+Выбрать пункт меню Новости</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на три полоски (меню)
+Выбрать пункт меню О приложение</t>
+  </si>
+  <si>
+    <t>Виден экран с новостями</t>
+  </si>
+  <si>
+    <t>Виден экран с информацией о приложение</t>
+  </si>
+  <si>
+    <t>Открытие экрана тематических цитат</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на кнопку Тематических цитат (бабочка)</t>
+  </si>
+  <si>
+    <t>Виден экран с Тематическими цитатами</t>
+  </si>
+  <si>
+    <t>Работа с тематическими цитатами</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на кнопку Тематических цитат (бабочка)
+Нажать на одну из цитат
+Нажать повторно на одну из цитат</t>
+  </si>
+  <si>
+    <t>Нажатая цитата разворачивается и сворачивается по клику</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на блок новостей
+Нажать повторно на блок новостей</t>
+  </si>
+  <si>
+    <t>Разворачивание/сворачивание блока новостей на главном экране</t>
+  </si>
+  <si>
+    <t>Блок новостей раскрывается/сворачивается</t>
+  </si>
+  <si>
+    <t>Разворачивание/сворачивание блока претензий на главном экране</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на блок претензий 
+Нажать повторно на блок претензий</t>
+  </si>
+  <si>
+    <t>Блок претензий раскрывается/сворачивается</t>
+  </si>
+  <si>
+    <t>Открытие странички новостей с главного экрана</t>
+  </si>
+  <si>
+    <t>Открытие странички претензий с главного экрана</t>
+  </si>
+  <si>
+    <t>Разворачивание/сворачивание одной новости на главном экране</t>
+  </si>
+  <si>
+    <t>Создание претензии с главного экрана</t>
+  </si>
+  <si>
+    <t>Фильтрация претензий</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Претензии
+Нажать кнопку фильтра
+Отфильтровать претензии</t>
+  </si>
+  <si>
+    <t>Открытие претензии с главного экрана</t>
+  </si>
+  <si>
+    <t>Возврат из претензии к главному экрану</t>
+  </si>
+  <si>
+    <t>Возврат из претензии к экрану претензий</t>
+  </si>
+  <si>
+    <t>Редактирование претензии с главного экрана</t>
+  </si>
+  <si>
+    <t>Редактирование претензии с экрана претензий</t>
+  </si>
+  <si>
+    <t>Смена порядка новостей</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей</t>
+  </si>
+  <si>
+    <t>Переход на экран управления новостями</t>
+  </si>
+  <si>
+    <t>Создание новости</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Редактирование новости</t>
+  </si>
+  <si>
+    <t>Выход из приложения</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +230,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +252,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +570,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\IdeaProjects\qamid-diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B5EC84-4AA5-440D-A930-566D671BC036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F79BDA-D47A-4560-8FC1-899D2FBBD1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>№</t>
   </si>
@@ -215,6 +215,147 @@
   </si>
   <si>
     <t>Выход из приложения</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на надпись ALL NEWS</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на надпись ALL CLAIMS</t>
+  </si>
+  <si>
+    <t>Видны только новости</t>
+  </si>
+  <si>
+    <t>Видны только претензии</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на новость
+Нажать повторно на новость</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на претензию
+Нажать кнопку назад</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на кнопку создания претензии
+Ввести данные
+Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Претензия отображается на главном экране</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на претензию</t>
+  </si>
+  <si>
+    <t>Изменения сохранились и видны</t>
+  </si>
+  <si>
+    <t>Новость разворачивается и сворачивается</t>
+  </si>
+  <si>
+    <t>На экране видна претензия и вся информация в ней</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Претензии
+Нажать на претензию
+Нажать кнопку назад</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Претензии
+Нажать на претензию
+Нажать кнопку редактирования претензии
+Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать на претензию
+Нажать кнопку редактирования претензии
+Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Виден экран с претензиями подходящие под фильтр</t>
+  </si>
+  <si>
+    <t>Создание претензии с экрана претензий</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Претензии
+Нажать на кнопку создания претензии
+Ввести данные
+Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Претензия отображается на экране претензий</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Новостей
+Нажать кнопку фильтра
+Отфильтровать новости</t>
+  </si>
+  <si>
+    <t>Виден экран с новостями подходящими под фильтр</t>
+  </si>
+  <si>
+    <t>Новость отображается на экране новостей</t>
+  </si>
+  <si>
+    <t>Новость пропала с экрана новостей</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Новостей
+Нажать на кнопку управления новостями</t>
+  </si>
+  <si>
+    <t>Видны кнопки управления новостями</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Новостей
+Перейти на экран управления новостями
+Нажать на кнопку создания новости
+Ввести данные
+Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Новостей
+Перейти на экран управления новостями
+Нажать кнопку редактирования новости
+Сохранить изменения</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Новостей
+Перейти на экран управления новостями
+Нажать кнопку удалить новость</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Нажать кнопку выхода
+Нажать на надпись Log out</t>
+  </si>
+  <si>
+    <t>Видна форма входа в приложение</t>
+  </si>
+  <si>
+    <t>Войти под существующим пользователем
+Перейти на экран Новостей
+Нажать кнопку смены порядка новостей</t>
+  </si>
+  <si>
+    <t>Последняя новость станет отображаться вверху</t>
   </si>
 </sst>
 </file>
@@ -271,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -290,6 +431,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,18 +725,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -600,312 +754,409 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="D16" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="C19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+      <c r="C24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D27" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D28" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D29" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>24</v>
+      <c r="C30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\IdeaProjects\qamid-diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F79BDA-D47A-4560-8FC1-899D2FBBD1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E82534E-4033-46CF-96B8-1A88AA6ADC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\IdeaProjects\qamid-diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E82534E-4033-46CF-96B8-1A88AA6ADC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66033032-D228-4556-B2F9-88E5190F30F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>№</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>Последняя новость станет отображаться вверху</t>
+  </si>
+  <si>
+    <t>Покрытие</t>
+  </si>
+  <si>
+    <t>Покрыт</t>
+  </si>
+  <si>
+    <t>Невозможно покрыть. Неактивны кнопки изменения претензии. При попытке добавления комментария приложение зависает.</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -444,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,9 +749,10 @@
     <col min="2" max="2" width="37.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -752,8 +765,11 @@
       <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -766,8 +782,11 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -780,8 +799,11 @@
       <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E3" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -794,8 +816,11 @@
       <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E4" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -808,8 +833,11 @@
       <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E5" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -822,8 +850,11 @@
       <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E6" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -836,8 +867,11 @@
       <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -850,8 +884,11 @@
       <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -864,8 +901,11 @@
       <c r="D9" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E9" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -878,8 +918,11 @@
       <c r="D10" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -892,8 +935,11 @@
       <c r="D11" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E11" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -906,8 +952,11 @@
       <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E12" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -920,8 +969,11 @@
       <c r="D13" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E13" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -934,8 +986,11 @@
       <c r="D14" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E14" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -948,8 +1003,11 @@
       <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E15" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -962,8 +1020,11 @@
       <c r="D16" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="E16" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -976,8 +1037,11 @@
       <c r="D17" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="E17" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -990,8 +1054,11 @@
       <c r="D18" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E18" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1004,8 +1071,11 @@
       <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E19" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1018,8 +1088,11 @@
       <c r="D20" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E20" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1032,8 +1105,11 @@
       <c r="D21" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E21" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1046,8 +1122,11 @@
       <c r="D22" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E22" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1060,8 +1139,11 @@
       <c r="D23" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="E23" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1074,8 +1156,11 @@
       <c r="D24" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="E24" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1088,8 +1173,11 @@
       <c r="D25" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E25" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1102,8 +1190,11 @@
       <c r="D26" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E26" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1116,8 +1207,11 @@
       <c r="D27" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1130,8 +1224,11 @@
       <c r="D28" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E28" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1144,8 +1241,11 @@
       <c r="D29" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E29" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1157,6 +1257,9 @@
       </c>
       <c r="D30" s="10" t="s">
         <v>84</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\IdeaProjects\qamid-diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D46907-F740-4167-8C08-0E94BD553761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD7CD6B-308A-433D-AE91-2D4E95A95A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="118">
   <si>
     <t>№</t>
   </si>
@@ -394,6 +394,60 @@
   </si>
   <si>
     <t>Экран "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t>Название теста</t>
+  </si>
+  <si>
+    <t>signInWrong</t>
+  </si>
+  <si>
+    <t>signInOK</t>
+  </si>
+  <si>
+    <t>expandAll</t>
+  </si>
+  <si>
+    <t>openAllNews</t>
+  </si>
+  <si>
+    <t>openAllClaims</t>
+  </si>
+  <si>
+    <t>expandSingleNews</t>
+  </si>
+  <si>
+    <t>openSingleClaim</t>
+  </si>
+  <si>
+    <t>createClaim</t>
+  </si>
+  <si>
+    <t>filteringClaims</t>
+  </si>
+  <si>
+    <t>claimScreen</t>
+  </si>
+  <si>
+    <t>newsScreenSorting</t>
+  </si>
+  <si>
+    <t>controlPanelCreateNews</t>
+  </si>
+  <si>
+    <t>newsScreenFiltering</t>
+  </si>
+  <si>
+    <t>newsEditingDeleting</t>
+  </si>
+  <si>
+    <t>aboutScreenAndBackToMain</t>
+  </si>
+  <si>
+    <t>thematicQuotes</t>
+  </si>
+  <si>
+    <t>функционал отсутствует</t>
   </si>
 </sst>
 </file>
@@ -821,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,13 +886,14 @@
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="37.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="54.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="54.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -849,19 +904,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -872,19 +930,22 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H2" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -893,19 +954,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -914,19 +978,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -935,19 +1002,22 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H5" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -958,19 +1028,22 @@
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H6" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -979,19 +1052,22 @@
         <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1000,19 +1076,22 @@
         <v>30</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1021,19 +1100,22 @@
         <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H9" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1042,19 +1124,22 @@
         <v>32</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1063,19 +1148,22 @@
         <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H11" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1083,20 +1171,21 @@
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H12" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1105,19 +1194,22 @@
         <v>33</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H13" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1126,19 +1218,22 @@
         <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1147,19 +1242,22 @@
         <v>17</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H15" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1168,19 +1266,22 @@
         <v>18</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H16" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1189,19 +1290,22 @@
         <v>19</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H17" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1210,19 +1314,22 @@
         <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1231,19 +1338,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H19" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1254,19 +1364,22 @@
         <v>34</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1275,19 +1388,22 @@
         <v>39</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H21" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1296,19 +1412,22 @@
         <v>54</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1317,19 +1436,22 @@
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H23" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1340,19 +1462,22 @@
         <v>40</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H24" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1361,19 +1486,22 @@
         <v>41</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1382,19 +1510,22 @@
         <v>42</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H26" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1405,19 +1536,22 @@
         <v>43</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H27" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1426,19 +1560,22 @@
         <v>45</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H28" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1447,19 +1584,22 @@
         <v>44</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H29" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1470,15 +1610,18 @@
         <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>63</v>
       </c>
     </row>
